--- a/Test Cases/Test cases.xlsx
+++ b/Test Cases/Test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b.bulovan-int\Desktop\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E03E021-C585-4F76-8384-54901AE046D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9696CDE1-4893-4EFC-BEDF-53A383634AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Test cases" sheetId="2" r:id="rId2"/>
     <sheet name="registration" sheetId="3" r:id="rId3"/>
     <sheet name="Add to Cart" sheetId="4" r:id="rId4"/>
+    <sheet name="Search" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="172">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -212,9 +213,6 @@
     <t>User tries to create account with email that is not in form example@example.example</t>
   </si>
   <si>
-    <t>User goes to the "Email"  field and enters randomly generated email with random number of character in form example@example.example</t>
-  </si>
-  <si>
     <t xml:space="preserve">User goes to the "Email"  field and enters random email address in format "example@example.random100+characters"  as a value </t>
   </si>
   <si>
@@ -245,12 +243,6 @@
     <t>Password strength meter showing that the password is "weak" and under the password field 'Minimum of different classes of characters in password is 3. Classes of characters: Lower Case, Upper Case, Digits, Special Characters.' is displayed.</t>
   </si>
   <si>
-    <t>User goes to the "Password" field and enters "@ 12345a" as  a password</t>
-  </si>
-  <si>
-    <t>Password strength meter showing that the password is "medium"  no more errora messages are displayed</t>
-  </si>
-  <si>
     <t>User tries to create account but in 'Confirm Password' field enters password that doesn't match the password entered in the 'Password' field.</t>
   </si>
   <si>
@@ -275,9 +267,6 @@
     <t>User goes to the "Password" field and enters "@Sifra123with250+moreRrandomCharacters" as  a password</t>
   </si>
   <si>
-    <t>User goes to the "Confirm Password" field and enters "@ 12345a" as  a password</t>
-  </si>
-  <si>
     <t>User goes to the "Password" field and enters " @Sifra123" as  a password</t>
   </si>
   <si>
@@ -290,9 +279,6 @@
     <t xml:space="preserve"> Scroll down to the section titled 'Hot sellers'</t>
   </si>
   <si>
-    <t>User adding to card product that is available, product that is in stock, from product page while user is not logged in.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Navigate to the product with the product title 'Hero Hoodie' and click on its picture </t>
   </si>
   <si>
@@ -399,13 +385,203 @@
   </si>
   <si>
     <t>Navigate and click on the 'View and Edit Cart' link on the  bottom of the 'add to cart' dropdown menu.</t>
+  </si>
+  <si>
+    <t>User adding item to card directly from the home page using produt card</t>
+  </si>
+  <si>
+    <t>Navigate to the product with the product title 'Argus All-Weather Tank' , DO NOT click on its picture</t>
+  </si>
+  <si>
+    <t>Navigate to the 'Size' buttons  and press on size M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button with 'M' title now has red border </t>
+  </si>
+  <si>
+    <t>Navigate and press button with 'Grey'  color</t>
+  </si>
+  <si>
+    <t>Protuct with title 'Argus All-Weather Tank' should look like a card with blue 'Add to Cart' button being displayed at the bottom of the card.</t>
+  </si>
+  <si>
+    <t>User should be scrolled back to the top of the page with a title 'New Luma Yoga Collection' an d message 'You added Argus All-Weather Tank to your shopping cart.' should be displayed on top of the page.</t>
+  </si>
+  <si>
+    <t>Drop down window is displayed and shows the product with title 'Argus All-Weather Tank'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate and press clickable link 'View and Edit Cart ' </t>
+  </si>
+  <si>
+    <t>User should be redirected to  the  page with its title of 'Shopping Cart' and item with title of 'Argus All-Weather Tank' should be displayed under 'Items' section.</t>
+  </si>
+  <si>
+    <t>Navigate to the qty field and enter value 2 in it</t>
+  </si>
+  <si>
+    <t>Qty field should have blue border, should be in focus and have value 2 in it</t>
+  </si>
+  <si>
+    <t>Navigate and click 'Update Shopping Cart'  button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading animation should be shown and after that Qty field now has the value 2 and is not in focus anymore. 'Order Total' is also updated and should be 44$. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate and click the small 'trash can' icon </t>
+  </si>
+  <si>
+    <t>Page should reload with tite 'Shopping Cart' and message 'You have no items in your shopping cart.
+Click here to continue shopping.' should be displayed</t>
+  </si>
+  <si>
+    <t>NOTE: It would be great to add a dialog questioning users if they are sure that they want to delete item to prevent acidental removals and to ensure good UX</t>
+  </si>
+  <si>
+    <t>User trying to add to the cart item that is not available from the home page</t>
+  </si>
+  <si>
+    <t>Navigate to the product with the product title 'Argus All-Weather Tank' and DO NOT click on it</t>
+  </si>
+  <si>
+    <t>Navigate to the 'Size', press on size S</t>
+  </si>
+  <si>
+    <t>Navigate and press 'Grey' button  in 'Color' section</t>
+  </si>
+  <si>
+    <t>User should be redirected to the product page with the title of 'Argus All-Weather Tank' and red error message 'The requested qty is not available' should be displayed</t>
+  </si>
+  <si>
+    <t>NOTE: Item that is not available should not be displayed to the users</t>
+  </si>
+  <si>
+    <t>Hover over navigation menu, over "men's" section</t>
+  </si>
+  <si>
+    <t>Small multiple choice dropdown menu should be visible with options 'Tops' and 'Bottoms'</t>
+  </si>
+  <si>
+    <t>Hover over 'Tops' option in dropdown menu</t>
+  </si>
+  <si>
+    <t>Another dropdown menu should be visible on the right side of the already visible menu with multiple options like 'Hoodies &amp; Sweatshirts'</t>
+  </si>
+  <si>
+    <t>Click on 'Hoodies &amp; Sweatshirts' in visible dropdown menu</t>
+  </si>
+  <si>
+    <t>User should be redirected to the product catalog page titled 'Hoodies &amp; Sweatshirts'</t>
+  </si>
+  <si>
+    <t>Hover over product with the title of 'Oslo Trek Hoodie'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product card should be highlighted by making it look like a card, </t>
+  </si>
+  <si>
+    <t>Click on size 'L'</t>
+  </si>
+  <si>
+    <t>Click on the color 'Purple'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button colored 'purple' should now have red border </t>
+  </si>
+  <si>
+    <t>Click blue 'Add to Cart' button</t>
+  </si>
+  <si>
+    <t>Item is added to the cart and message 'You added Oslo Trek Hoodie to your shopping cart.' is displayed, but on the top of the page while user is still on the middle of the page so he is unable to see the message displayed.</t>
+  </si>
+  <si>
+    <t>Click on the item with the title of 'Bruno Compete Hoodie'</t>
+  </si>
+  <si>
+    <t>User should be rediredted to the product page with the title 'Bruno Compete Hoodie'</t>
+  </si>
+  <si>
+    <t>Click button 'L' in size section</t>
+  </si>
+  <si>
+    <t>Click greed collored button in color section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">button colored 'green' should have red border </t>
+  </si>
+  <si>
+    <t>Click 'add to cart' button</t>
+  </si>
+  <si>
+    <t>Message 'You added Bruno Compete Hoodie to your shopping cart.' is displayed on top of the page</t>
+  </si>
+  <si>
+    <t>User adding to cart item from product catalog page and removing an item from the cart without leaving current page</t>
+  </si>
+  <si>
+    <t>Click on 'shopping cart' icon in the right top corner of the page</t>
+  </si>
+  <si>
+    <t>Dropdown with users items should be displayed under the icon</t>
+  </si>
+  <si>
+    <t>Click on the smal 'trash can' icon on the bottom of the 'Bruno Compete Hoodie' item</t>
+  </si>
+  <si>
+    <t>Pop-up dialog should be displayed with options 'Cancel' and 'Ok' as buttons</t>
+  </si>
+  <si>
+    <t>Click 'Ok' button</t>
+  </si>
+  <si>
+    <t>Pop-up dialog should be gone, and shortly after an item'Bruno Compete Hoodie' should not be in users cart, but item with title 'Oslo Trek Hoodie' should still be in users cart</t>
+  </si>
+  <si>
+    <t>Note: Maybe user should be scrolled to the top of the page to see the message or the message should be like a small pop-up window that is fixed to the top of the browser window</t>
+  </si>
+  <si>
+    <t>User adding to cart product that is available, product that is in stock, from product page while user is not logged in.</t>
+  </si>
+  <si>
+    <t>Click on the small pen icon in the 'Hero Hoodie' item in the cart</t>
+  </si>
+  <si>
+    <t>User should be redirected to the page that looks the same as normal product page with title 'Hero Hoodie' but options that user chose in steps 4 and 5 are already highlighted with the red border and blue button now has 'Update cart' text in it</t>
+  </si>
+  <si>
+    <t>Navigate and prees the blue 'Update cart' button</t>
+  </si>
+  <si>
+    <t>User should be redirected to the page with title  'Shopping Cart' that displays users item with choices from the step 9 and 10. That should be the only item in users cart and message 'Hero Hoodie was updated in your shopping cart.' should be displayed on the top of the page</t>
+  </si>
+  <si>
+    <t>User edit item that he added to the cart by pressing the pen icon in cart's dropdown menu</t>
+  </si>
+  <si>
+    <t>Press 'Add to Cart button'</t>
+  </si>
+  <si>
+    <t>Small message 'This is a required field.' under colors section</t>
+  </si>
+  <si>
+    <t>Enter value '0' in Qty field</t>
+  </si>
+  <si>
+    <t>No error messages should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Small message 'Please enter a quantity greater than 0.' under Qty field </t>
+  </si>
+  <si>
+    <t>User tries to add to cart product with not all options selected and to add product with invalid Quantity.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +681,27 @@
       <name val="Source Sans Pro"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -544,7 +741,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="119">
     <border>
       <left/>
       <right/>
@@ -997,19 +1194,6 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -1148,19 +1332,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1255,39 +1426,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1298,40 +1475,14 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1473,17 +1624,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1611,6 +1751,540 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1623,7 +2297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1704,9 +2378,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1825,127 +2496,57 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1957,25 +2558,227 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1987,109 +2790,214 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2395,10 +3303,10 @@
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="102"/>
+      <c r="E3" s="158"/>
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2413,10 +3321,10 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="60" customHeight="1">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="159" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="4">
@@ -2425,78 +3333,78 @@
       <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="109" t="s">
+      <c r="I4" s="165" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.600000000000001">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="110"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="166"/>
     </row>
     <row r="6" spans="2:9" ht="18.600000000000001">
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="110"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="166"/>
     </row>
     <row r="7" spans="2:9" ht="18.600000000000001">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="8">
         <v>3</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="110"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="166"/>
     </row>
     <row r="8" spans="2:9" ht="19.2" thickBot="1">
-      <c r="B8" s="105"/>
-      <c r="C8" s="105"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="10">
         <v>4</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="111"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="164"/>
+      <c r="I8" s="167"/>
     </row>
     <row r="9" spans="2:9" ht="79.95" customHeight="1">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="112" t="s">
+      <c r="C9" s="168" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="12">
@@ -2505,72 +3413,72 @@
       <c r="E9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="115" t="s">
+      <c r="F9" s="171" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="115" t="s">
+      <c r="G9" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="115" t="s">
+      <c r="H9" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="118" t="s">
+      <c r="I9" s="174" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.600000000000001">
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
       <c r="D10" s="14"/>
       <c r="E10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="119"/>
-    </row>
-    <row r="11" spans="2:9" ht="18.600000000000001">
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="175"/>
+    </row>
+    <row r="11" spans="2:9" ht="19.8">
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
       <c r="D11" s="16">
         <v>2</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="119"/>
-    </row>
-    <row r="12" spans="2:9" ht="18.600000000000001">
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="175"/>
+    </row>
+    <row r="12" spans="2:9" ht="19.8">
+      <c r="B12" s="169"/>
+      <c r="C12" s="169"/>
       <c r="D12" s="16">
         <v>3</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="119"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.2" thickBot="1">
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="175"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.399999999999999" thickBot="1">
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
       <c r="D13" s="18">
         <v>4</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="120"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -2597,7 +3505,7 @@
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I11"/>
+      <selection activeCell="B2" sqref="B2:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2619,10 +3527,10 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2637,148 +3545,147 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="73"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="2:9" ht="18.600000000000001" customHeight="1">
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="44"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="26"/>
     </row>
     <row r="5" spans="2:9" ht="18.600000000000001" customHeight="1">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9" ht="18.600000000000001" customHeight="1">
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="2:9" ht="19.2">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="69"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
       <c r="I7" s="26"/>
     </row>
     <row r="8" spans="2:9" ht="19.2">
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" ht="19.2">
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="26"/>
     </row>
     <row r="10" spans="2:9" ht="19.2">
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="69"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="26"/>
     </row>
     <row r="11" spans="2:9" ht="19.8" thickBot="1">
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="69"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="27"/>
     </row>
     <row r="12" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="118"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="174"/>
     </row>
     <row r="13" spans="2:9" ht="18.600000000000001" customHeight="1">
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="119"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="175"/>
     </row>
     <row r="14" spans="2:9" ht="18.600000000000001" customHeight="1">
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="119"/>
-    </row>
-    <row r="15" spans="2:9" ht="18.600000000000001">
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="175"/>
+    </row>
+    <row r="15" spans="2:9" ht="19.8">
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="119"/>
-    </row>
-    <row r="16" spans="2:9" ht="19.2" thickBot="1">
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="175"/>
+    </row>
+    <row r="16" spans="2:9" ht="20.399999999999999" thickBot="1">
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="120"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="F12:F16"/>
     <mergeCell ref="G12:G16"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
@@ -2787,6 +3694,7 @@
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="C12:C16"/>
+    <mergeCell ref="F12:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2794,10 +3702,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F17035-BFAE-49F0-9159-FF2C09B34F97}">
-  <dimension ref="B1:I63"/>
+  <dimension ref="B1:I57"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:I9"/>
+    <sheetView topLeftCell="A48" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2819,14 +3727,14 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="102"/>
+      <c r="E2" s="158"/>
       <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2837,35 +3745,35 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="58.2" customHeight="1">
-      <c r="B3" s="103">
+      <c r="B3" s="159">
         <v>1</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="62">
         <v>1</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="90" t="s">
+      <c r="F3" s="64"/>
+      <c r="G3" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="59"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="2:9" ht="99" customHeight="1">
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="61">
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="60">
         <v>2</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="84"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="23" t="s">
         <v>23</v>
       </c>
@@ -2873,33 +3781,33 @@
       <c r="I4" s="26"/>
     </row>
     <row r="5" spans="2:9" ht="37.200000000000003" customHeight="1">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="42">
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="41">
         <v>3</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="26"/>
     </row>
     <row r="6" spans="2:9" ht="37.200000000000003">
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="46">
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="45">
         <v>4</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="77" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="23" t="s">
@@ -2909,89 +3817,89 @@
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="2:9" ht="55.8">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="46">
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="45">
         <v>5</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="87" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="23"/>
       <c r="I7" s="26"/>
     </row>
-    <row r="8" spans="2:9" ht="55.8">
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="48">
+    <row r="8" spans="2:9" ht="59.4">
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="47">
         <v>6</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="77" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" ht="159" customHeight="1" thickBot="1">
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="48">
+      <c r="B9" s="161"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="47">
         <v>7</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="88" t="s">
+      <c r="F9" s="38"/>
+      <c r="G9" s="86" t="s">
         <v>32</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:9" ht="58.2" customHeight="1">
-      <c r="B10" s="112">
+      <c r="B10" s="168">
         <v>2</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="62">
         <v>1</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="57"/>
     </row>
     <row r="11" spans="2:9" ht="59.4" customHeight="1">
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="68">
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="67">
         <v>2</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="82"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="23" t="s">
         <v>23</v>
       </c>
@@ -2999,51 +3907,51 @@
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="2:9" ht="44.4" customHeight="1">
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="49">
+      <c r="B12" s="169"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="48">
         <v>3</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="2:9" ht="37.200000000000003">
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="50">
+    <row r="13" spans="2:9" ht="39.6">
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="49">
         <v>4</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="28"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="2:9" ht="55.8">
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="50">
+    <row r="14" spans="2:9" ht="59.4">
+      <c r="B14" s="169"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="49">
         <v>5</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="77" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="23" t="s">
@@ -3052,156 +3960,156 @@
       <c r="H14" s="28"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="2:9" ht="55.8">
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="52">
+    <row r="15" spans="2:9" ht="59.4">
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="51">
         <v>6</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="77" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" spans="2:9" ht="168" thickBot="1">
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="54">
+    <row r="16" spans="2:9" ht="172.8" thickBot="1">
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="53">
         <v>7</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="54" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="86" t="s">
+      <c r="G16" s="84" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="31"/>
     </row>
     <row r="17" spans="2:9" ht="55.8">
-      <c r="B17" s="103">
+      <c r="B17" s="159">
         <v>3</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="159" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="42">
         <v>1</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="67" t="s">
+      <c r="F17" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="85" t="s">
+      <c r="G17" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="106"/>
-      <c r="I17" s="109"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="165"/>
     </row>
     <row r="18" spans="2:9" ht="104.4" customHeight="1">
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="42">
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="41">
         <v>2</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="78"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="107"/>
-      <c r="I18" s="110"/>
-    </row>
-    <row r="19" spans="2:9" ht="111.6">
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="42">
+      <c r="H18" s="163"/>
+      <c r="I18" s="166"/>
+    </row>
+    <row r="19" spans="2:9" ht="99">
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="41">
         <v>3</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="81"/>
-      <c r="G19" s="80" t="s">
+      <c r="F19" s="79"/>
+      <c r="G19" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="110"/>
-    </row>
-    <row r="20" spans="2:9" ht="18.600000000000001">
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="80"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="166"/>
+    </row>
+    <row r="20" spans="2:9" ht="19.8">
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="110"/>
-    </row>
-    <row r="21" spans="2:9" ht="18.600000000000001">
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="69"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="166"/>
+    </row>
+    <row r="21" spans="2:9" ht="19.8">
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="110"/>
-    </row>
-    <row r="22" spans="2:9" ht="19.2" thickBot="1">
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="72"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="166"/>
+    </row>
+    <row r="22" spans="2:9" ht="20.399999999999999" thickBot="1">
+      <c r="B22" s="161"/>
+      <c r="C22" s="161"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="71"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="111"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="167"/>
     </row>
     <row r="23" spans="2:9" ht="55.8">
-      <c r="B23" s="103">
+      <c r="B23" s="159">
         <v>4</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="42">
         <v>1</v>
       </c>
-      <c r="E23" s="64" t="s">
+      <c r="E23" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="66" t="s">
         <v>42</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="2:9" ht="55.8">
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="42">
+    <row r="24" spans="2:9" ht="59.4">
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="41">
         <v>2</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E24" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="78"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="23" t="s">
         <v>23</v>
       </c>
@@ -3209,33 +4117,33 @@
       <c r="I24" s="26"/>
     </row>
     <row r="25" spans="2:9" ht="37.200000000000003">
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="47">
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="46">
         <v>3</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="44" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="78" t="s">
+      <c r="G25" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H25" s="23"/>
       <c r="I25" s="26"/>
     </row>
-    <row r="26" spans="2:9" ht="37.200000000000003">
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="50">
+    <row r="26" spans="2:9" ht="39.6">
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="49">
         <v>4</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="59" t="s">
         <v>34</v>
       </c>
       <c r="G26" s="23" t="s">
@@ -3244,590 +4152,506 @@
       <c r="H26" s="23"/>
       <c r="I26" s="26"/>
     </row>
-    <row r="27" spans="2:9" ht="37.200000000000003">
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="50">
+    <row r="27" spans="2:9" ht="39.6">
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="49">
         <v>5</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="50" t="s">
         <v>47</v>
       </c>
       <c r="F27" s="23"/>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="23"/>
       <c r="I27" s="26"/>
     </row>
-    <row r="28" spans="2:9" ht="55.8">
-      <c r="B28" s="104"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="52">
+    <row r="28" spans="2:9" ht="59.4">
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="51">
         <v>6</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="78" t="s">
+      <c r="F28" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="78" t="s">
-        <v>57</v>
+      <c r="G28" s="77" t="s">
+        <v>56</v>
       </c>
       <c r="H28" s="23"/>
       <c r="I28" s="26"/>
     </row>
-    <row r="29" spans="2:9" ht="130.19999999999999">
-      <c r="B29" s="104"/>
-      <c r="C29" s="104"/>
-      <c r="D29" s="75">
+    <row r="29" spans="2:9" ht="118.8">
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="74">
         <v>7</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77" t="s">
+      <c r="F29" s="76"/>
+      <c r="G29" s="76" t="s">
         <v>48</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="26"/>
     </row>
-    <row r="30" spans="2:9" ht="37.200000000000003">
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="74">
+    <row r="30" spans="2:9" ht="39.6">
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="73">
         <v>8</v>
       </c>
-      <c r="E30" s="70" t="s">
+      <c r="E30" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="78"/>
+      <c r="F30" s="77"/>
       <c r="G30" s="23" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="23"/>
       <c r="I30" s="26"/>
     </row>
-    <row r="31" spans="2:9" ht="130.19999999999999">
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="75">
-        <v>7</v>
-      </c>
-      <c r="E31" s="76" t="s">
+    <row r="31" spans="2:9" ht="138.6">
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="74">
+        <v>9</v>
+      </c>
+      <c r="E31" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77" t="s">
+      <c r="F31" s="76"/>
+      <c r="G31" s="76" t="s">
         <v>48</v>
       </c>
       <c r="H31" s="23"/>
       <c r="I31" s="26"/>
     </row>
-    <row r="32" spans="2:9" ht="74.400000000000006">
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="53">
-        <v>8</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="77"/>
-      <c r="G32" s="78" t="s">
+    <row r="32" spans="2:9" ht="79.2">
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="52">
+        <v>10</v>
+      </c>
+      <c r="E32" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H32" s="23"/>
       <c r="I32" s="26"/>
     </row>
-    <row r="33" spans="2:9" ht="204.6">
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="75">
-        <v>9</v>
-      </c>
-      <c r="E33" s="76" t="s">
+    <row r="33" spans="2:9" ht="218.4" thickBot="1">
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="74">
+        <v>11</v>
+      </c>
+      <c r="E33" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77" t="s">
-        <v>53</v>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76" t="s">
+        <v>52</v>
       </c>
       <c r="H33" s="23"/>
       <c r="I33" s="26"/>
     </row>
-    <row r="34" spans="2:9" ht="79.2">
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="75">
-        <v>10</v>
-      </c>
-      <c r="E34" s="70" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78" t="s">
+    <row r="34" spans="2:9" ht="55.8" customHeight="1">
+      <c r="B34" s="159">
+        <v>5</v>
+      </c>
+      <c r="C34" s="198" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="190">
+        <v>1</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="22"/>
+      <c r="I34" s="25"/>
+    </row>
+    <row r="35" spans="2:9" ht="59.4">
+      <c r="B35" s="160"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="191">
+        <v>2</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="77"/>
+      <c r="G35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="23"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="2:9" ht="37.200000000000003">
+      <c r="B36" s="160"/>
+      <c r="C36" s="199"/>
+      <c r="D36" s="192">
+        <v>3</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="26"/>
-    </row>
-    <row r="35" spans="2:9" ht="99.6" thickBot="1">
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="53">
-        <v>11</v>
-      </c>
-      <c r="E35" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="24"/>
-      <c r="I35" s="27"/>
-    </row>
-    <row r="36" spans="2:9" ht="55.8">
-      <c r="B36" s="103">
-        <v>5</v>
-      </c>
-      <c r="C36" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="43">
-        <v>1</v>
-      </c>
-      <c r="E36" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="H36" s="22"/>
-      <c r="I36" s="25"/>
-    </row>
-    <row r="37" spans="2:9" ht="59.4">
-      <c r="B37" s="104"/>
-      <c r="C37" s="104"/>
-      <c r="D37" s="42">
-        <v>2</v>
-      </c>
-      <c r="E37" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="23" t="s">
-        <v>23</v>
+      <c r="H36" s="23"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="2:9" ht="39.6">
+      <c r="B37" s="160"/>
+      <c r="C37" s="199"/>
+      <c r="D37" s="193">
+        <v>4</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>25</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="26"/>
     </row>
-    <row r="38" spans="2:9" ht="37.200000000000003">
-      <c r="B38" s="104"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="47">
-        <v>3</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F38" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="78" t="s">
+    <row r="38" spans="2:9" ht="59.4">
+      <c r="B38" s="160"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="193">
+        <v>5</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="78"/>
+      <c r="G38" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="23"/>
       <c r="I38" s="26"/>
     </row>
-    <row r="39" spans="2:9" ht="39.6">
-      <c r="B39" s="104"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="50">
-        <v>4</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>25</v>
+    <row r="39" spans="2:9" ht="178.2">
+      <c r="B39" s="160"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="194">
+        <v>6</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="77"/>
+      <c r="G39" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="H39" s="23"/>
       <c r="I39" s="26"/>
     </row>
-    <row r="40" spans="2:9" ht="59.4">
-      <c r="B40" s="104"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="50">
-        <v>5</v>
-      </c>
-      <c r="E40" s="51" t="s">
+    <row r="40" spans="2:9" ht="39.6">
+      <c r="B40" s="160"/>
+      <c r="C40" s="199"/>
+      <c r="D40" s="126">
+        <v>7</v>
+      </c>
+      <c r="E40" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="80"/>
-      <c r="G40" s="78" t="s">
-        <v>25</v>
-      </c>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
       <c r="H40" s="23"/>
       <c r="I40" s="26"/>
     </row>
     <row r="41" spans="2:9" ht="178.2">
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="52">
-        <v>6</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="78"/>
-      <c r="G41" s="23" t="s">
+      <c r="B41" s="160"/>
+      <c r="C41" s="199"/>
+      <c r="D41" s="126">
+        <v>8</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59" t="s">
         <v>58</v>
       </c>
       <c r="H41" s="23"/>
       <c r="I41" s="26"/>
     </row>
-    <row r="42" spans="2:9" ht="39.6">
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="48">
-        <v>7</v>
-      </c>
-      <c r="E42" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
+    <row r="42" spans="2:9" ht="178.2" customHeight="1">
+      <c r="B42" s="160"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="127">
+        <v>9</v>
+      </c>
+      <c r="E42" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77" t="s">
+        <v>60</v>
+      </c>
       <c r="H42" s="23"/>
       <c r="I42" s="26"/>
     </row>
-    <row r="43" spans="2:9" ht="178.2">
-      <c r="B43" s="104"/>
-      <c r="C43" s="104"/>
-      <c r="D43" s="48">
-        <v>8</v>
-      </c>
-      <c r="E43" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60" t="s">
-        <v>59</v>
+    <row r="43" spans="2:9" ht="59.4">
+      <c r="B43" s="160"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="65">
+        <v>10</v>
+      </c>
+      <c r="E43" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77" t="s">
+        <v>62</v>
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="26"/>
     </row>
-    <row r="44" spans="2:9" ht="178.2">
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="99">
-        <v>9</v>
-      </c>
-      <c r="E44" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78" t="s">
-        <v>61</v>
-      </c>
+    <row r="44" spans="2:9" ht="39.6">
+      <c r="B44" s="160"/>
+      <c r="C44" s="199"/>
+      <c r="D44" s="195">
+        <v>11</v>
+      </c>
+      <c r="E44" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="77"/>
+      <c r="G44" s="59"/>
       <c r="H44" s="23"/>
       <c r="I44" s="26"/>
     </row>
-    <row r="45" spans="2:9" ht="59.4">
-      <c r="B45" s="104"/>
-      <c r="C45" s="104"/>
-      <c r="D45" s="66">
-        <v>10</v>
-      </c>
-      <c r="E45" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78" t="s">
-        <v>65</v>
+    <row r="45" spans="2:9" ht="118.8" customHeight="1">
+      <c r="B45" s="160"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="65">
+        <v>12</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" s="77"/>
+      <c r="G45" s="59" t="s">
+        <v>71</v>
       </c>
       <c r="H45" s="23"/>
       <c r="I45" s="26"/>
     </row>
-    <row r="46" spans="2:9" ht="39.6">
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="100">
-        <v>11</v>
-      </c>
-      <c r="E46" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="78"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="26"/>
-    </row>
-    <row r="47" spans="2:9" ht="118.8">
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="66">
-        <v>12</v>
-      </c>
-      <c r="E47" s="76" t="s">
+    <row r="46" spans="2:9" ht="59.4">
+      <c r="B46" s="160"/>
+      <c r="C46" s="199"/>
+      <c r="D46" s="126">
+        <v>13</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="141"/>
+      <c r="I46" s="139"/>
+    </row>
+    <row r="47" spans="2:9" ht="79.2">
+      <c r="B47" s="160"/>
+      <c r="C47" s="199"/>
+      <c r="D47" s="196">
+        <v>14</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="139"/>
+    </row>
+    <row r="48" spans="2:9" ht="79.8" thickBot="1">
+      <c r="B48" s="161"/>
+      <c r="C48" s="200"/>
+      <c r="D48" s="197">
+        <v>15</v>
+      </c>
+      <c r="E48" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="78"/>
-      <c r="G47" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="H47" s="23"/>
-      <c r="I47" s="26"/>
-    </row>
-    <row r="48" spans="2:9" ht="79.2">
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="93">
-        <v>13</v>
-      </c>
-      <c r="E48" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48" s="23"/>
-      <c r="I48" s="26"/>
-    </row>
-    <row r="49" spans="2:9" ht="39.6">
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="96">
-        <v>14</v>
-      </c>
-      <c r="E49" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="26"/>
-    </row>
-    <row r="50" spans="2:9" ht="99.6" thickBot="1">
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="97">
-        <v>15</v>
-      </c>
-      <c r="E50" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H50" s="24"/>
-      <c r="I50" s="27"/>
-    </row>
-    <row r="51" spans="2:9" ht="55.8">
-      <c r="B51" s="103">
+      <c r="F48" s="92"/>
+      <c r="G48" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="141"/>
+      <c r="I48" s="139"/>
+    </row>
+    <row r="49" spans="2:9" ht="55.8" customHeight="1">
+      <c r="B49" s="159">
         <v>6</v>
       </c>
-      <c r="C51" s="103" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="43">
+      <c r="C49" s="159" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="42">
         <v>1</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E49" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="67" t="s">
+      <c r="F49" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="67" t="s">
+      <c r="G49" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="22"/>
-      <c r="I51" s="25"/>
-    </row>
-    <row r="52" spans="2:9" ht="59.4">
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="42">
+      <c r="H49" s="22"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" spans="2:9" ht="59.4">
+      <c r="B50" s="160"/>
+      <c r="C50" s="160"/>
+      <c r="D50" s="41">
         <v>2</v>
       </c>
-      <c r="E52" s="70" t="s">
+      <c r="E50" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="23" t="s">
+      <c r="F50" s="77"/>
+      <c r="G50" s="23" t="s">
         <v>23</v>
+      </c>
+      <c r="H50" s="23"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="51" spans="2:9" ht="37.200000000000003">
+      <c r="B51" s="160"/>
+      <c r="C51" s="160"/>
+      <c r="D51" s="46">
+        <v>3</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="23"/>
+      <c r="I51" s="26"/>
+    </row>
+    <row r="52" spans="2:9" ht="39.6">
+      <c r="B52" s="160"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="49">
+        <v>4</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>25</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="26"/>
     </row>
-    <row r="53" spans="2:9" ht="37.200000000000003">
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="47">
-        <v>3</v>
-      </c>
-      <c r="E53" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="G53" s="78" t="s">
+    <row r="53" spans="2:9" ht="59.4">
+      <c r="B53" s="160"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="49">
+        <v>5</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="78"/>
+      <c r="G53" s="77" t="s">
         <v>25</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" s="26"/>
     </row>
-    <row r="54" spans="2:9" ht="39.6">
-      <c r="B54" s="104"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="50">
-        <v>4</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G54" s="60" t="s">
-        <v>25</v>
+    <row r="54" spans="2:9" ht="59.4">
+      <c r="B54" s="160"/>
+      <c r="C54" s="160"/>
+      <c r="D54" s="51">
+        <v>6</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="77"/>
+      <c r="G54" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="H54" s="23"/>
       <c r="I54" s="26"/>
     </row>
-    <row r="55" spans="2:9" ht="59.4">
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="50">
-        <v>5</v>
-      </c>
-      <c r="E55" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="80"/>
-      <c r="G55" s="78" t="s">
-        <v>25</v>
-      </c>
+    <row r="55" spans="2:9" ht="39.6">
+      <c r="B55" s="160"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="47">
+        <v>7</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
       <c r="H55" s="23"/>
       <c r="I55" s="26"/>
     </row>
-    <row r="56" spans="2:9" ht="59.4">
-      <c r="B56" s="104"/>
-      <c r="C56" s="104"/>
-      <c r="D56" s="52">
-        <v>6</v>
-      </c>
-      <c r="E56" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="78"/>
-      <c r="G56" s="23" t="s">
-        <v>65</v>
+    <row r="56" spans="2:9" ht="119.4" thickBot="1">
+      <c r="B56" s="178"/>
+      <c r="C56" s="178"/>
+      <c r="D56" s="47">
+        <v>8</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F56" s="141"/>
+      <c r="G56" s="90" t="s">
+        <v>64</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="26"/>
     </row>
-    <row r="57" spans="2:9" ht="39.6">
-      <c r="B57" s="104"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="48">
-        <v>7</v>
-      </c>
-      <c r="E57" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="26"/>
-    </row>
-    <row r="58" spans="2:9" ht="118.8">
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="48">
-        <v>8</v>
-      </c>
-      <c r="E58" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="26"/>
-    </row>
-    <row r="59" spans="2:9" ht="59.4">
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="48">
-        <v>9</v>
-      </c>
-      <c r="E59" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="26"/>
-    </row>
-    <row r="60" spans="2:9" ht="79.2">
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="93">
-        <v>10</v>
-      </c>
-      <c r="E60" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="26"/>
-    </row>
-    <row r="61" spans="2:9" ht="79.2">
-      <c r="B61" s="104"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="96">
-        <v>11</v>
-      </c>
-      <c r="E61" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" s="94"/>
-      <c r="G61" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="26"/>
-    </row>
-    <row r="62" spans="2:9" ht="20.399999999999999" thickBot="1">
-      <c r="B62" s="105"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="92"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="27"/>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="E63" s="71"/>
+    <row r="57" spans="2:9">
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="H57" s="70"/>
+      <c r="I57" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3835,16 +4659,16 @@
     <mergeCell ref="I17:I22"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B36:B50"/>
-    <mergeCell ref="C36:C50"/>
-    <mergeCell ref="B51:B62"/>
-    <mergeCell ref="C51:C62"/>
+    <mergeCell ref="C34:C48"/>
+    <mergeCell ref="B34:B48"/>
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="C49:C56"/>
     <mergeCell ref="C3:C9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="C10:C16"/>
-    <mergeCell ref="B23:B35"/>
-    <mergeCell ref="C23:C35"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="C23:C33"/>
     <mergeCell ref="C17:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3854,10 +4678,1372 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9FDB00-FF47-4746-8685-27AE03E55FC5}">
-  <dimension ref="B1:M25"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="15" thickBot="1"/>
+    <row r="2" spans="2:10" ht="58.2" thickBot="1">
+      <c r="B2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="157" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="158"/>
+      <c r="G2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="55.8" customHeight="1">
+      <c r="B3" s="159">
+        <v>1</v>
+      </c>
+      <c r="C3" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="62">
+        <v>1</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+    </row>
+    <row r="4" spans="2:10" ht="37.200000000000003" customHeight="1">
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="60">
+        <v>2</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="82"/>
+      <c r="H4" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" ht="74.400000000000006">
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="41">
+        <v>3</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="2:10" ht="37.200000000000003" customHeight="1">
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="45">
+        <v>4</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="34"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="2:10" ht="55.8" customHeight="1">
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="45">
+        <v>5</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="81"/>
+      <c r="H7" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="2:10" ht="111.6" customHeight="1">
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="47">
+        <v>6</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="32"/>
+    </row>
+    <row r="9" spans="2:10" ht="75" thickBot="1">
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="47">
+        <v>7</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="82"/>
+      <c r="H9" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="2:10" ht="75" thickBot="1">
+      <c r="B10" s="178"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="102">
+        <v>8</v>
+      </c>
+      <c r="F10" s="101" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="105"/>
+      <c r="H10" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="106"/>
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="2:10" ht="111.6" customHeight="1">
+      <c r="B11" s="189">
+        <v>2</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="186" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="122">
+        <v>1</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="64"/>
+      <c r="H11" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="2:10" ht="37.200000000000003" customHeight="1">
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="123">
+        <v>2</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="82"/>
+      <c r="H12" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="2:10" ht="74.400000000000006" customHeight="1">
+      <c r="B13" s="184"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="124">
+        <v>3</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="34"/>
+      <c r="H13" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="2:10" ht="37.200000000000003" customHeight="1">
+      <c r="B14" s="184"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="125">
+        <v>4</v>
+      </c>
+      <c r="F14" s="104" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="77"/>
+      <c r="H14" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="32"/>
+    </row>
+    <row r="15" spans="2:10" ht="55.8" customHeight="1">
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="125">
+        <v>5</v>
+      </c>
+      <c r="F15" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="81"/>
+      <c r="H15" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="32"/>
+    </row>
+    <row r="16" spans="2:10" ht="138.6" customHeight="1">
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="126">
+        <v>6</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="32"/>
+    </row>
+    <row r="17" spans="1:13" ht="37.799999999999997" customHeight="1" thickBot="1">
+      <c r="B17" s="184"/>
+      <c r="C17" s="184"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="127">
+        <v>7</v>
+      </c>
+      <c r="F17" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="87"/>
+      <c r="H17" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="116"/>
+    </row>
+    <row r="18" spans="1:13" s="107" customFormat="1" ht="56.4" customHeight="1" thickBot="1">
+      <c r="A18" s="108"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="65">
+        <v>8</v>
+      </c>
+      <c r="F18" s="113" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="112"/>
+      <c r="H18" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="112"/>
+      <c r="J18" s="115"/>
+    </row>
+    <row r="19" spans="1:13" ht="130.19999999999999">
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="126">
+        <v>9</v>
+      </c>
+      <c r="F19" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="81"/>
+      <c r="H19" s="109" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="81"/>
+      <c r="J19" s="110"/>
+    </row>
+    <row r="20" spans="1:13" ht="93" customHeight="1">
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="128">
+        <v>10</v>
+      </c>
+      <c r="F20" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="117"/>
+      <c r="H20" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="117"/>
+      <c r="J20" s="115"/>
+    </row>
+    <row r="21" spans="1:13" ht="93" customHeight="1">
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="129">
+        <v>11</v>
+      </c>
+      <c r="F21" s="119" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="81"/>
+      <c r="H21" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="I21" s="117"/>
+      <c r="J21" s="115"/>
+    </row>
+    <row r="22" spans="1:13" ht="93">
+      <c r="B22" s="184"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="132">
+        <v>12</v>
+      </c>
+      <c r="F22" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="133"/>
+      <c r="H22" s="134" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="117"/>
+      <c r="J22" s="135"/>
+    </row>
+    <row r="23" spans="1:13" ht="130.80000000000001" customHeight="1" thickBot="1">
+      <c r="B23" s="185"/>
+      <c r="C23" s="185"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="131">
+        <v>13</v>
+      </c>
+      <c r="F23" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="137"/>
+      <c r="H23" s="138" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="137"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="121"/>
+    </row>
+    <row r="24" spans="1:13" ht="55.8" customHeight="1">
+      <c r="B24" s="182">
+        <v>3</v>
+      </c>
+      <c r="C24" s="182" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="179"/>
+      <c r="E24" s="62">
+        <v>1</v>
+      </c>
+      <c r="F24" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="64"/>
+      <c r="H24" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="1:13" ht="37.200000000000003">
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="60">
+        <v>2</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="82"/>
+      <c r="H25" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="93"/>
+      <c r="J25" s="95"/>
+      <c r="M25" s="111"/>
+    </row>
+    <row r="26" spans="1:13" ht="111.6">
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="41">
+        <v>3</v>
+      </c>
+      <c r="F26" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="93"/>
+      <c r="H26" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" s="93"/>
+      <c r="J26" s="95"/>
+    </row>
+    <row r="27" spans="1:13" ht="55.8">
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="45">
+        <v>4</v>
+      </c>
+      <c r="F27" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="77"/>
+      <c r="H27" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="93"/>
+      <c r="J27" s="95"/>
+    </row>
+    <row r="28" spans="1:13" ht="55.8">
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="45">
+        <v>5</v>
+      </c>
+      <c r="F28" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="81"/>
+      <c r="H28" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="93"/>
+      <c r="J28" s="95"/>
+    </row>
+    <row r="29" spans="1:13" ht="167.4">
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="47">
+        <v>6</v>
+      </c>
+      <c r="F29" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="93"/>
+      <c r="J29" s="95"/>
+    </row>
+    <row r="30" spans="1:13" ht="75" thickBot="1">
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="47">
+        <v>7</v>
+      </c>
+      <c r="F30" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="82"/>
+      <c r="H30" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="94"/>
+      <c r="J30" s="96"/>
+    </row>
+    <row r="31" spans="1:13" ht="130.80000000000001" thickBot="1">
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="148">
+        <v>8</v>
+      </c>
+      <c r="F31" s="151" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="152"/>
+      <c r="H31" s="146" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="153"/>
+      <c r="J31" s="95"/>
+    </row>
+    <row r="32" spans="1:13" ht="56.4" thickBot="1">
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="148">
+        <v>9</v>
+      </c>
+      <c r="F32" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="152"/>
+      <c r="H32" s="146" t="s">
+        <v>120</v>
+      </c>
+      <c r="I32" s="154"/>
+      <c r="J32" s="95"/>
+    </row>
+    <row r="33" spans="2:11" ht="130.80000000000001" thickBot="1">
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="149">
+        <v>10</v>
+      </c>
+      <c r="F33" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="152"/>
+      <c r="H33" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="147"/>
+      <c r="J33" s="95"/>
+    </row>
+    <row r="34" spans="2:11" ht="178.8" thickBot="1">
+      <c r="B34" s="178"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="102">
+        <v>11</v>
+      </c>
+      <c r="F34" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="105"/>
+      <c r="H34" s="145" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="106"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="155" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="55.8">
+      <c r="B35" s="159">
+        <v>4</v>
+      </c>
+      <c r="C35" s="159" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="179"/>
+      <c r="E35" s="62">
+        <v>1</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="64"/>
+      <c r="H35" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+    </row>
+    <row r="36" spans="2:11" ht="37.200000000000003">
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="180"/>
+      <c r="E36" s="60">
+        <v>2</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="82"/>
+      <c r="H36" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="93"/>
+      <c r="J36" s="95"/>
+    </row>
+    <row r="37" spans="2:11" ht="111.6">
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="41">
+        <v>3</v>
+      </c>
+      <c r="F37" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="93"/>
+      <c r="H37" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="93"/>
+      <c r="J37" s="95"/>
+    </row>
+    <row r="38" spans="2:11" ht="37.200000000000003">
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="45">
+        <v>4</v>
+      </c>
+      <c r="F38" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" s="77"/>
+      <c r="H38" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="93"/>
+      <c r="J38" s="95"/>
+    </row>
+    <row r="39" spans="2:11" ht="59.4">
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="45">
+        <v>5</v>
+      </c>
+      <c r="F39" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="81"/>
+      <c r="H39" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39" s="93"/>
+      <c r="J39" s="95"/>
+    </row>
+    <row r="40" spans="2:11" ht="139.19999999999999" thickBot="1">
+      <c r="B40" s="160"/>
+      <c r="C40" s="160"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="47">
+        <v>6</v>
+      </c>
+      <c r="F40" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="59"/>
+      <c r="H40" s="204" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="93"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="155" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="55.8" customHeight="1">
+      <c r="B41" s="183">
+        <v>5</v>
+      </c>
+      <c r="C41" s="221" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="206"/>
+      <c r="E41" s="62">
+        <v>1</v>
+      </c>
+      <c r="F41" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41" s="64"/>
+      <c r="H41" s="202" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="203"/>
+      <c r="J41" s="58"/>
+    </row>
+    <row r="42" spans="2:11" ht="79.2">
+      <c r="B42" s="184"/>
+      <c r="C42" s="222"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="60">
+        <v>2</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="82"/>
+      <c r="H42" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="I42" s="93"/>
+      <c r="J42" s="95"/>
+    </row>
+    <row r="43" spans="2:11" ht="99">
+      <c r="B43" s="184"/>
+      <c r="C43" s="222"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="41">
+        <v>3</v>
+      </c>
+      <c r="F43" s="104" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="93"/>
+      <c r="H43" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="93"/>
+      <c r="J43" s="95"/>
+    </row>
+    <row r="44" spans="2:11" ht="59.4">
+      <c r="B44" s="184"/>
+      <c r="C44" s="222"/>
+      <c r="D44" s="207"/>
+      <c r="E44" s="45">
+        <v>4</v>
+      </c>
+      <c r="F44" s="201" t="s">
+        <v>136</v>
+      </c>
+      <c r="G44" s="77"/>
+      <c r="H44" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="I44" s="93"/>
+      <c r="J44" s="95"/>
+    </row>
+    <row r="45" spans="2:11" ht="59.4">
+      <c r="B45" s="184"/>
+      <c r="C45" s="222"/>
+      <c r="D45" s="207"/>
+      <c r="E45" s="45">
+        <v>5</v>
+      </c>
+      <c r="F45" s="104" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="81"/>
+      <c r="H45" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="I45" s="93"/>
+      <c r="J45" s="95"/>
+    </row>
+    <row r="46" spans="2:11" ht="39.6">
+      <c r="B46" s="184"/>
+      <c r="C46" s="222"/>
+      <c r="D46" s="207"/>
+      <c r="E46" s="47">
+        <v>6</v>
+      </c>
+      <c r="F46" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="59"/>
+      <c r="H46" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="93"/>
+      <c r="J46" s="95"/>
+    </row>
+    <row r="47" spans="2:11" ht="40.200000000000003" thickBot="1">
+      <c r="B47" s="184"/>
+      <c r="C47" s="222"/>
+      <c r="D47" s="207"/>
+      <c r="E47" s="47">
+        <v>7</v>
+      </c>
+      <c r="F47" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="82"/>
+      <c r="H47" s="141" t="s">
+        <v>142</v>
+      </c>
+      <c r="I47" s="94"/>
+      <c r="J47" s="96"/>
+    </row>
+    <row r="48" spans="2:11" ht="178.8" thickBot="1">
+      <c r="B48" s="184"/>
+      <c r="C48" s="222"/>
+      <c r="D48" s="207"/>
+      <c r="E48" s="214">
+        <v>8</v>
+      </c>
+      <c r="F48" s="151" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="152"/>
+      <c r="H48" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" s="106"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="155" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="60" thickBot="1">
+      <c r="B49" s="184"/>
+      <c r="C49" s="222"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="215">
+        <v>10</v>
+      </c>
+      <c r="F49" s="218" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" s="219"/>
+      <c r="H49" s="117" t="s">
+        <v>146</v>
+      </c>
+      <c r="I49" s="210"/>
+      <c r="J49" s="209"/>
+    </row>
+    <row r="50" spans="1:11" ht="40.200000000000003" thickBot="1">
+      <c r="A50" s="108"/>
+      <c r="B50" s="184"/>
+      <c r="C50" s="222"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="215">
+        <v>11</v>
+      </c>
+      <c r="F50" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="G50" s="220"/>
+      <c r="H50" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="212"/>
+      <c r="J50" s="107"/>
+    </row>
+    <row r="51" spans="1:11" ht="40.200000000000003" thickBot="1">
+      <c r="B51" s="184"/>
+      <c r="C51" s="222"/>
+      <c r="D51" s="207"/>
+      <c r="E51" s="216">
+        <v>12</v>
+      </c>
+      <c r="F51" s="218" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="82"/>
+      <c r="H51" s="141" t="s">
+        <v>149</v>
+      </c>
+      <c r="I51" s="211"/>
+      <c r="J51" s="107"/>
+      <c r="K51" s="121"/>
+    </row>
+    <row r="52" spans="1:11" ht="79.8" thickBot="1">
+      <c r="B52" s="184"/>
+      <c r="C52" s="222"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="216">
+        <v>13</v>
+      </c>
+      <c r="F52" s="217" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="219"/>
+      <c r="H52" s="229" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="212"/>
+      <c r="J52" s="213"/>
+      <c r="K52" s="121"/>
+    </row>
+    <row r="53" spans="1:11" ht="60" thickBot="1">
+      <c r="B53" s="184"/>
+      <c r="C53" s="222"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="215">
+        <v>14</v>
+      </c>
+      <c r="F53" s="151" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="82"/>
+      <c r="H53" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="I53" s="225"/>
+      <c r="J53" s="224"/>
+    </row>
+    <row r="54" spans="1:11" ht="79.8" thickBot="1">
+      <c r="B54" s="184"/>
+      <c r="C54" s="222"/>
+      <c r="D54" s="207"/>
+      <c r="E54" s="215">
+        <v>15</v>
+      </c>
+      <c r="F54" s="217" t="s">
+        <v>155</v>
+      </c>
+      <c r="G54" s="219"/>
+      <c r="H54" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="I54" s="225"/>
+      <c r="J54" s="107"/>
+      <c r="K54" s="121"/>
+    </row>
+    <row r="55" spans="1:11" ht="139.19999999999999" thickBot="1">
+      <c r="B55" s="185"/>
+      <c r="C55" s="223"/>
+      <c r="D55" s="208"/>
+      <c r="E55" s="227">
+        <v>16</v>
+      </c>
+      <c r="F55" s="226" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" s="228"/>
+      <c r="H55" s="141" t="s">
+        <v>158</v>
+      </c>
+      <c r="I55" s="231"/>
+      <c r="J55" s="107"/>
+      <c r="K55" s="230"/>
+    </row>
+    <row r="56" spans="1:11" ht="56.4" customHeight="1" thickBot="1">
+      <c r="B56" s="240">
+        <v>6</v>
+      </c>
+      <c r="C56" s="243" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="237"/>
+      <c r="E56" s="122">
+        <v>1</v>
+      </c>
+      <c r="F56" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="234" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="107"/>
+      <c r="K56" s="235"/>
+    </row>
+    <row r="57" spans="1:11" ht="40.200000000000003" thickBot="1">
+      <c r="B57" s="241"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="238"/>
+      <c r="E57" s="123">
+        <v>2</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G57" s="82"/>
+      <c r="H57" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="I57" s="211"/>
+      <c r="J57" s="205"/>
+      <c r="K57" s="121"/>
+    </row>
+    <row r="58" spans="1:11" ht="75" thickBot="1">
+      <c r="B58" s="241"/>
+      <c r="C58" s="244"/>
+      <c r="D58" s="238"/>
+      <c r="E58" s="191">
+        <v>3</v>
+      </c>
+      <c r="F58" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="141"/>
+      <c r="H58" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="225"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="121"/>
+    </row>
+    <row r="59" spans="1:11" ht="40.200000000000003" thickBot="1">
+      <c r="B59" s="241"/>
+      <c r="C59" s="244"/>
+      <c r="D59" s="238"/>
+      <c r="E59" s="125">
+        <v>4</v>
+      </c>
+      <c r="F59" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="77"/>
+      <c r="H59" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="J59" s="107"/>
+    </row>
+    <row r="60" spans="1:11" ht="60" thickBot="1">
+      <c r="B60" s="241"/>
+      <c r="C60" s="244"/>
+      <c r="D60" s="238"/>
+      <c r="E60" s="125">
+        <v>5</v>
+      </c>
+      <c r="F60" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="81"/>
+      <c r="H60" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="I60" s="225"/>
+      <c r="K60" s="121"/>
+    </row>
+    <row r="61" spans="1:11" ht="119.4" thickBot="1">
+      <c r="B61" s="241"/>
+      <c r="C61" s="244"/>
+      <c r="D61" s="238"/>
+      <c r="E61" s="126">
+        <v>6</v>
+      </c>
+      <c r="F61" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="59"/>
+      <c r="H61" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61" s="212"/>
+      <c r="J61" s="107"/>
+    </row>
+    <row r="62" spans="1:11" ht="79.8" thickBot="1">
+      <c r="B62" s="241"/>
+      <c r="C62" s="244"/>
+      <c r="D62" s="238"/>
+      <c r="E62" s="126">
+        <v>7</v>
+      </c>
+      <c r="F62" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="G62" s="82"/>
+      <c r="H62" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="J62" s="205"/>
+      <c r="K62" s="121"/>
+    </row>
+    <row r="63" spans="1:11" ht="178.8" thickBot="1">
+      <c r="B63" s="241"/>
+      <c r="C63" s="244"/>
+      <c r="D63" s="238"/>
+      <c r="E63" s="126">
+        <v>8</v>
+      </c>
+      <c r="F63" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="82"/>
+      <c r="H63" s="77" t="s">
+        <v>162</v>
+      </c>
+      <c r="I63" s="211"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="121"/>
+    </row>
+    <row r="64" spans="1:11" ht="40.200000000000003" thickBot="1">
+      <c r="B64" s="241"/>
+      <c r="C64" s="244"/>
+      <c r="D64" s="238"/>
+      <c r="E64" s="126">
+        <v>9</v>
+      </c>
+      <c r="F64" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="G64" s="82"/>
+      <c r="H64" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="211"/>
+      <c r="J64" s="236"/>
+      <c r="K64" s="121"/>
+    </row>
+    <row r="65" spans="2:11" ht="60" thickBot="1">
+      <c r="B65" s="241"/>
+      <c r="C65" s="244"/>
+      <c r="D65" s="238"/>
+      <c r="E65" s="125">
+        <v>10</v>
+      </c>
+      <c r="F65" s="104" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="81"/>
+      <c r="H65" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="212"/>
+      <c r="J65" s="236"/>
+      <c r="K65" s="121"/>
+    </row>
+    <row r="66" spans="2:11" ht="218.4" customHeight="1" thickBot="1">
+      <c r="B66" s="242"/>
+      <c r="C66" s="245"/>
+      <c r="D66" s="239"/>
+      <c r="E66" s="126">
+        <v>11</v>
+      </c>
+      <c r="F66" s="232" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="141"/>
+      <c r="H66" s="233" t="s">
+        <v>164</v>
+      </c>
+      <c r="J66" s="107"/>
+      <c r="K66" s="121"/>
+    </row>
+    <row r="67" spans="2:11" ht="56.4" thickBot="1">
+      <c r="B67" s="240">
+        <v>7</v>
+      </c>
+      <c r="C67" s="256" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67" s="237"/>
+      <c r="E67" s="122">
+        <v>1</v>
+      </c>
+      <c r="F67" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="64"/>
+      <c r="H67" s="234" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" s="107"/>
+      <c r="J67" s="107"/>
+    </row>
+    <row r="68" spans="2:11" ht="40.200000000000003" thickBot="1">
+      <c r="B68" s="241"/>
+      <c r="C68" s="257"/>
+      <c r="D68" s="238"/>
+      <c r="E68" s="123">
+        <v>2</v>
+      </c>
+      <c r="F68" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="82"/>
+      <c r="H68" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+    </row>
+    <row r="69" spans="2:11" ht="75" thickBot="1">
+      <c r="B69" s="241"/>
+      <c r="C69" s="257"/>
+      <c r="D69" s="238"/>
+      <c r="E69" s="191">
+        <v>3</v>
+      </c>
+      <c r="F69" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="141"/>
+      <c r="H69" s="149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69" s="107"/>
+      <c r="J69" s="107"/>
+    </row>
+    <row r="70" spans="2:11" ht="40.200000000000003" thickBot="1">
+      <c r="B70" s="241"/>
+      <c r="C70" s="257"/>
+      <c r="D70" s="238"/>
+      <c r="E70" s="126">
+        <v>4</v>
+      </c>
+      <c r="F70" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="G70" s="78"/>
+      <c r="H70" s="246" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70" s="107"/>
+      <c r="J70" s="107"/>
+    </row>
+    <row r="71" spans="2:11" ht="56.4" thickBot="1">
+      <c r="B71" s="241"/>
+      <c r="C71" s="257"/>
+      <c r="D71" s="238"/>
+      <c r="E71" s="249">
+        <v>5</v>
+      </c>
+      <c r="F71" s="247" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="248"/>
+      <c r="H71" s="234" t="s">
+        <v>167</v>
+      </c>
+      <c r="I71" s="107"/>
+      <c r="J71" s="107"/>
+    </row>
+    <row r="72" spans="2:11" ht="60" thickBot="1">
+      <c r="B72" s="241"/>
+      <c r="C72" s="257"/>
+      <c r="D72" s="238"/>
+      <c r="E72" s="125">
+        <v>5</v>
+      </c>
+      <c r="F72" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" s="81"/>
+      <c r="H72" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72" s="107"/>
+      <c r="J72" s="107"/>
+    </row>
+    <row r="73" spans="2:11" ht="40.200000000000003" thickBot="1">
+      <c r="B73" s="241"/>
+      <c r="C73" s="257"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="250">
+        <v>6</v>
+      </c>
+      <c r="F73" s="253" t="s">
+        <v>168</v>
+      </c>
+      <c r="G73" s="141"/>
+      <c r="H73" s="149" t="s">
+        <v>169</v>
+      </c>
+      <c r="I73" s="107"/>
+      <c r="J73" s="107"/>
+      <c r="K73" s="108"/>
+    </row>
+    <row r="74" spans="2:11" ht="56.4" thickBot="1">
+      <c r="B74" s="242"/>
+      <c r="C74" s="258"/>
+      <c r="D74" s="239"/>
+      <c r="E74" s="251">
+        <v>7</v>
+      </c>
+      <c r="F74" s="252" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="254"/>
+      <c r="H74" s="255" t="s">
+        <v>170</v>
+      </c>
+      <c r="I74" s="107"/>
+      <c r="J74" s="107"/>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="D56:D66"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="D67:D74"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="D24:D34"/>
+    <mergeCell ref="B24:B34"/>
+    <mergeCell ref="C24:C34"/>
+    <mergeCell ref="C11:C23"/>
+    <mergeCell ref="D11:D23"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="B41:B55"/>
+    <mergeCell ref="C41:C55"/>
+    <mergeCell ref="D41:D55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3D9C36-9B5E-4A6A-B6E4-2966B21B4427}">
+  <dimension ref="B1:J10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3875,421 +6061,179 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1"/>
     <row r="2" spans="2:10" ht="58.2" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="143" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="128" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2" s="101" t="s">
+      <c r="D2" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="36" t="s">
+      <c r="F2" s="158"/>
+      <c r="G2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="56" t="s">
         <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="144" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="55.8">
-      <c r="B3" s="103">
+      <c r="B3" s="159">
         <v>1</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="159" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="179"/>
+      <c r="E3" s="62">
+        <v>1</v>
+      </c>
+      <c r="F3" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="64"/>
+      <c r="H3" s="259" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+    </row>
+    <row r="4" spans="2:10" ht="39.6">
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="60">
+        <v>2</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="82"/>
+      <c r="H4" s="141" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="141"/>
+      <c r="J4" s="139"/>
+    </row>
+    <row r="5" spans="2:10" ht="74.400000000000006">
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="41">
+        <v>3</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="141"/>
+      <c r="H5" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="141"/>
+      <c r="J5" s="139"/>
+    </row>
+    <row r="6" spans="2:10" ht="39.6">
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="45">
+        <v>4</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="77"/>
+      <c r="H6" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="132"/>
-      <c r="E3" s="63">
-        <v>1</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-    </row>
-    <row r="4" spans="2:10" ht="39.6">
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="133"/>
-      <c r="E4" s="61">
-        <v>2</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="34" t="s">
+      <c r="I6" s="141"/>
+      <c r="J6" s="139"/>
+    </row>
+    <row r="7" spans="2:10" ht="59.4">
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="45">
+        <v>5</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="81"/>
+      <c r="H7" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="2:10" ht="74.400000000000006">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="42">
-        <v>3</v>
-      </c>
-      <c r="F5" s="122" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="78" t="s">
+      <c r="I7" s="141"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" ht="118.8">
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="47">
+        <v>6</v>
+      </c>
+      <c r="F8" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="32"/>
-    </row>
-    <row r="6" spans="2:10" ht="39.6">
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="46">
-        <v>4</v>
-      </c>
-      <c r="F6" s="129" t="s">
+      <c r="G8" s="59"/>
+      <c r="H8" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="34" t="s">
+      <c r="I8" s="141"/>
+      <c r="J8" s="139"/>
+    </row>
+    <row r="9" spans="2:10" ht="79.8" thickBot="1">
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="47">
+        <v>7</v>
+      </c>
+      <c r="F9" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="2:10" ht="59.4">
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="46">
-        <v>5</v>
-      </c>
-      <c r="F7" s="129" t="s">
+      <c r="G9" s="82"/>
+      <c r="H9" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="89" t="s">
+      <c r="I9" s="142"/>
+      <c r="J9" s="140"/>
+    </row>
+    <row r="10" spans="2:10" ht="60" thickBot="1">
+      <c r="B10" s="178"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="102">
+        <v>8</v>
+      </c>
+      <c r="F10" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="32"/>
-    </row>
-    <row r="8" spans="2:10" ht="118.8">
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="48">
-        <v>6</v>
-      </c>
-      <c r="F8" s="129" t="s">
+      <c r="G10" s="105"/>
+      <c r="H10" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="123" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="2:10" ht="79.8" thickBot="1">
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="48">
-        <v>7</v>
-      </c>
-      <c r="F9" s="124" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="2:10" ht="60" thickBot="1">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="127">
-        <v>8</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" s="131"/>
-      <c r="J10" s="32"/>
-    </row>
-    <row r="11" spans="2:10" ht="111.6" customHeight="1">
-      <c r="B11" s="103">
-        <v>2</v>
-      </c>
-      <c r="C11" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="164" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="156">
-        <v>1</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="65"/>
-      <c r="H11" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="2:10" ht="39.6">
-      <c r="B12" s="104"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="157">
-        <v>2</v>
-      </c>
-      <c r="F12" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="34"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="2:10" ht="74.400000000000006" customHeight="1">
-      <c r="B13" s="104"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="158">
-        <v>3</v>
-      </c>
-      <c r="F13" s="122" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="34"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="2:10" ht="39.6">
-      <c r="B14" s="104"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="159">
-        <v>4</v>
-      </c>
-      <c r="F14" s="129" t="s">
-        <v>96</v>
-      </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="34"/>
-      <c r="J14" s="32"/>
-    </row>
-    <row r="15" spans="2:10" ht="59.4">
-      <c r="B15" s="104"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="159">
-        <v>5</v>
-      </c>
-      <c r="F15" s="129" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="32"/>
-    </row>
-    <row r="16" spans="2:10" ht="138.6" customHeight="1">
-      <c r="B16" s="104"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="160">
-        <v>6</v>
-      </c>
-      <c r="F16" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="32"/>
-    </row>
-    <row r="17" spans="2:13" ht="40.200000000000003" thickBot="1">
-      <c r="B17" s="105"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="165"/>
-      <c r="E17" s="161">
-        <v>7</v>
-      </c>
-      <c r="F17" s="146" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="89"/>
-      <c r="H17" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="60"/>
-      <c r="J17" s="148"/>
-    </row>
-    <row r="18" spans="2:13" s="136" customFormat="1" ht="40.200000000000003" thickBot="1">
-      <c r="B18" s="137"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="66">
-        <v>8</v>
-      </c>
-      <c r="F18" s="145" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="144"/>
-      <c r="H18" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="144"/>
-      <c r="J18" s="147"/>
-    </row>
-    <row r="19" spans="2:13" ht="138.6">
-      <c r="B19" s="135"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="160">
-        <v>9</v>
-      </c>
-      <c r="F19" s="129" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="83"/>
-      <c r="J19" s="142"/>
-    </row>
-    <row r="20" spans="2:13" ht="99">
-      <c r="B20" s="135"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="162">
-        <v>10</v>
-      </c>
-      <c r="F20" s="153" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="149"/>
-      <c r="H20" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="I20" s="149"/>
-      <c r="J20" s="147"/>
-    </row>
-    <row r="21" spans="2:13" ht="99">
-      <c r="B21" s="135"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="163">
-        <v>11</v>
-      </c>
-      <c r="F21" s="152" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="83"/>
-      <c r="H21" s="144" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="149"/>
-      <c r="J21" s="147"/>
-    </row>
-    <row r="22" spans="2:13" ht="93">
-      <c r="B22" s="135"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="169">
-        <v>12</v>
-      </c>
-      <c r="F22" s="167" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="149"/>
-      <c r="J22" s="172"/>
-    </row>
-    <row r="23" spans="2:13" ht="119.4" thickBot="1">
-      <c r="C23" s="140"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="168">
-        <v>13</v>
-      </c>
-      <c r="F23" s="173" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="174"/>
-      <c r="H23" s="175" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="174"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="154"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="C24" s="155"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="M25" s="143"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="156"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C11:C23"/>
-    <mergeCell ref="D11:D23"/>
-    <mergeCell ref="B11:B17"/>
+  <mergeCells count="4">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="C3:C10"/>
     <mergeCell ref="D3:D10"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="C3:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>